--- a/example_models/simple_model.xlsx
+++ b/example_models/simple_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.gsk.com/personal/mehdi_x_nikfar_gsk_com/Documents/Projects/TMDD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wescummings/projects/ghqctoolkit/example_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3BECDF44-FA8A-AA41-A1AF-D396ABB5C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BFD1B95-DEA1-8945-90C8-39ADAF63E798}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1FD619-F6E2-8345-BD67-16039E7D20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>

--- a/example_models/simple_model.xlsx
+++ b/example_models/simple_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wescummings/projects/ghqctoolkit/example_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1FD619-F6E2-8345-BD67-16039E7D20C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9ECCF5-EAC5-B640-A287-052EF2E06FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Tissue.Drug./(Plasma.Drug +Plasma.Complex)</t>
+  </si>
+  <si>
+    <t>r_7</t>
+  </si>
+  <si>
+    <t>null &lt;-&gt; null</t>
+  </si>
+  <si>
+    <t>kdeg*0</t>
+  </si>
+  <si>
+    <t>New Thing</t>
   </si>
 </sst>
 </file>
@@ -746,7 +758,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>59</v>
@@ -1109,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="221" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1195,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1379,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="194" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1511,6 +1523,23 @@
       </c>
       <c r="E7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/example_models/simple_model.xlsx
+++ b/example_models/simple_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wescummings/projects/ghqctoolkit/example_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9ECCF5-EAC5-B640-A287-052EF2E06FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463BDC8-471D-434A-AD9A-FCAA092C38A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>New Thing</t>
+  </si>
+  <si>
+    <t>time &lt; tc</t>
+  </si>
+  <si>
+    <t>dose_amount=old_dose</t>
+  </si>
+  <si>
+    <t>Reset dose</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="194" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="194" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1628,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="206" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+    <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1677,6 +1686,21 @@
         <v>79</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/example_models/simple_model.xlsx
+++ b/example_models/simple_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wescummings/projects/ghqctoolkit/example_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463BDC8-471D-434A-AD9A-FCAA092C38A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26748C7F-B1EE-2447-BC81-6879D0D32C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>New Thing</t>
+  </si>
+  <si>
+    <t>e_2</t>
   </si>
   <si>
     <t>time &lt; tc</t>
@@ -1640,7 +1643,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1687,18 +1690,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/example_models/simple_model.xlsx
+++ b/example_models/simple_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wescummings/projects/ghqctoolkit/example_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26748C7F-B1EE-2447-BC81-6879D0D32C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394BF042-3409-9941-B288-4AA137637E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="20200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,16 +362,16 @@
     <t>New Thing</t>
   </si>
   <si>
-    <t>e_2</t>
-  </si>
-  <si>
     <t>time &lt; tc</t>
   </si>
   <si>
-    <t>dose_amount=old_dose</t>
-  </si>
-  <si>
     <t>Reset dose</t>
+  </si>
+  <si>
+    <t>e_3</t>
+  </si>
+  <si>
+    <t>dose_amount!=new_dose</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1691,19 +1691,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
